--- a/命题讨论.xlsx
+++ b/命题讨论.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10604"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_364C43FB8DBDAFB8493ED8B42ECBDE4F13569F52" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{428718C2-8F51-0C42-884A-6053834F2763}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,14 +119,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="14.77734375" customWidth="1"/>
+    <col min="1" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -513,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -533,18 +522,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>1.5</v>
@@ -553,18 +542,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -573,15 +562,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -590,15 +579,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>1.5</v>
@@ -607,21 +596,21 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -630,15 +619,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -647,18 +636,18 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3.5</v>
@@ -667,18 +656,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
       </c>
       <c r="E10">
         <v>3.5</v>
